--- a/src/main/resources/rules/test.drl.xlsx
+++ b/src/main/resources/rules/test.drl.xlsx
@@ -3,8 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet2" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet1" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="test.drl.csv" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>RuleSet</t>
   </si>
@@ -44,80 +43,71 @@
     <t>$model : WorkerModel</t>
   </si>
   <si>
-    <t>actionType == $1</t>
-  </si>
-  <si>
-    <t>System.out.println("this is the first action "+$1+" for the type of event "+$2+" action type ="+$model.getActionType());</t>
-  </si>
-  <si>
-    <t>$model.setPrevId($1);</t>
+    <t xml:space="preserve">(action.equalsIgnoreCase($1) </t>
+  </si>
+  <si>
+    <t>&amp;&amp; type.equalsIgnoreCase($1))</t>
+  </si>
+  <si>
+    <t>$model.setMessage("this is the first action "+$model.getAction()+" for the type of event "+$model.getType()+" "+$1);</t>
   </si>
   <si>
     <t>Brackets</t>
   </si>
   <si>
-    <t>Print out fee</t>
-  </si>
-  <si>
-    <t>"EVENT_CREATE"</t>
-  </si>
-  <si>
-    <t>"Create", "EVENT"</t>
+    <t>Brackets 2</t>
+  </si>
+  <si>
+    <t>"Create"</t>
+  </si>
+  <si>
+    <t>"EVENT"</t>
   </si>
   <si>
     <t>"Its an event create action"</t>
   </si>
   <si>
-    <t>"EVENT_UPDATE"</t>
-  </si>
-  <si>
-    <t>"Update", "EVENT"</t>
+    <t>"Update"</t>
   </si>
   <si>
     <t>"Its an event update action"</t>
   </si>
   <si>
-    <t>"EVENT_DELETE"</t>
-  </si>
-  <si>
-    <t>"Delete", "EVENT"</t>
+    <t>"Delete"</t>
   </si>
   <si>
     <t>"Its an event delete action"</t>
   </si>
   <si>
-    <t>org.example.Product</t>
-  </si>
-  <si>
-    <t>RuleTable Discount</t>
-  </si>
-  <si>
-    <t>$product : Product</t>
-  </si>
-  <si>
-    <t>price &gt; $1 &amp;&amp; type==$2</t>
-  </si>
-  <si>
-    <t>System.out.println("is more than "+ $1 +" and cost = "+$2);</t>
-  </si>
-  <si>
-    <t>$product.setDiscount($1);</t>
-  </si>
-  <si>
-    <t>Setting discounts</t>
-  </si>
-  <si>
-    <t>100,"gold"</t>
-  </si>
-  <si>
-    <t>100,$product.getPrice()</t>
+    <t>"Appt"</t>
+  </si>
+  <si>
+    <t>"Its an appt create action"</t>
+  </si>
+  <si>
+    <t>"Its an appt update action"</t>
+  </si>
+  <si>
+    <t>"Its an appt delete action"</t>
+  </si>
+  <si>
+    <t>"Class"</t>
+  </si>
+  <si>
+    <t>"Its an class create action"</t>
+  </si>
+  <si>
+    <t>"Its an class update action"</t>
+  </si>
+  <si>
+    <t>"Its an class delete action"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -127,30 +117,10 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFFF6600"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FF9900FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <i/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -168,85 +138,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border/>
-    <border>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -257,10 +163,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -468,16 +370,18 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="41.38"/>
-    <col customWidth="1" min="3" max="3" width="61.63"/>
-    <col customWidth="1" min="4" max="4" width="44.13"/>
+    <col customWidth="1" min="2" max="2" width="43.88"/>
+    <col customWidth="1" min="3" max="3" width="56.13"/>
+    <col customWidth="1" min="4" max="4" width="86.38"/>
+    <col customWidth="1" min="5" max="5" width="21.25"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -485,7 +389,8 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -493,220 +398,154 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="4"/>
-    </row>
     <row r="7">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
     </row>
     <row r="8">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="11"/>
     </row>
     <row r="12">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="13" t="s">
+    </row>
+    <row r="14">
+      <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="13" t="s">
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="13" t="s">
+    </row>
+    <row r="15">
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+    <row r="16">
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="34.88"/>
-    <col customWidth="1" min="3" max="3" width="56.0"/>
-    <col customWidth="1" min="4" max="4" width="44.13"/>
-  </cols>
-  <sheetData>
-    <row r="2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="17">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="19"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="18"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:C9"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>